--- a/src/project2semestr/price.xlsx
+++ b/src/project2semestr/price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="109">
   <si>
     <t>№</t>
   </si>
@@ -140,6 +140,9 @@
     <t>Арматура гладкая, 8 мм</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>Арматура гладкая, 10 мм</t>
   </si>
   <si>
@@ -164,7 +167,7 @@
     <t>46</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Арматура гладкая, 12 мм</t>
@@ -194,12 +197,12 @@
     <t>69 200</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>Арматура гладкая, 14 мм</t>
   </si>
   <si>
@@ -224,7 +227,7 @@
     <t>68 500</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>Арматура гладкая, 16 мм</t>
@@ -242,7 +245,7 @@
     <t>113</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>Арматура гладкая, 18 мм</t>
@@ -260,7 +263,7 @@
     <t>142</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>Арматура гладкая, 20 мм</t>
@@ -278,7 +281,7 @@
     <t>176</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Арматура гладкая, 22 мм</t>
@@ -299,7 +302,7 @@
     <t>Мотки</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Арматура гладкая (мотки), 6 мм</t>
@@ -320,7 +323,7 @@
     <t>67 300</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Арматура гладкая (мотки), 8 мм</t>
@@ -380,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -655,7 +658,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>15</v>
@@ -699,10 +702,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>10</v>
@@ -714,116 +717,116 @@
         <v>17</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="M9" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="L9" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="M9" t="s" s="0">
-        <v>57</v>
-      </c>
       <c r="N9" t="s" s="0">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="L10" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="M10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="H10" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="M10" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="N10" t="s" s="0">
-        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -831,10 +834,10 @@
         <v>61</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
@@ -846,261 +849,261 @@
         <v>17</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="N12" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="H12" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="M12" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="N12" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="M13" t="s" s="0">
-        <v>81</v>
-      </c>
       <c r="N13" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M14" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>87</v>
-      </c>
       <c r="N14" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M15" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>93</v>
-      </c>
       <c r="N15" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="M16" t="s" s="0">
         <v>94</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="B17" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F17" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="H17" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="I17" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="N17" t="s" s="0">
-        <v>101</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>10</v>
@@ -1115,28 +1118,72 @@
         <v>31</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H18" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="I18" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s" s="0">
+      <c r="C19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="K18" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="L18" t="s" s="0">
+      <c r="I19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="M18" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="N18" t="s" s="0">
+      <c r="K19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="L19" t="s" s="0">
         <v>107</v>
+      </c>
+      <c r="M19" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/src/project2semestr/price.xlsx
+++ b/src/project2semestr/price.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="103">
   <si>
     <t>№</t>
   </si>
@@ -71,19 +71,19 @@
     <t>19</t>
   </si>
   <si>
-    <t>73 960</t>
-  </si>
-  <si>
-    <t>72 580</t>
+    <t>74 380</t>
+  </si>
+  <si>
+    <t>72 990</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>71 890</t>
-  </si>
-  <si>
-    <t>71 200</t>
+    <t>72 290</t>
+  </si>
+  <si>
+    <t>71 600</t>
   </si>
   <si>
     <t>2</t>
@@ -92,18 +92,6 @@
     <t>Арматура гладкая (размотанная), 6 мм</t>
   </si>
   <si>
-    <t>72 930</t>
-  </si>
-  <si>
-    <t>71 560</t>
-  </si>
-  <si>
-    <t>70 880</t>
-  </si>
-  <si>
-    <t>70 200</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -119,19 +107,19 @@
     <t>31</t>
   </si>
   <si>
-    <t>73 440</t>
+    <t>73 860</t>
+  </si>
+  <si>
+    <t>72 480</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>72 070</t>
-  </si>
-  <si>
-    <t>71 380</t>
-  </si>
-  <si>
-    <t>70 700</t>
+    <t>71 790</t>
+  </si>
+  <si>
+    <t>71 100</t>
   </si>
   <si>
     <t>5</t>
@@ -140,205 +128,199 @@
     <t>Арматура гладкая, 8 мм</t>
   </si>
   <si>
+    <t>Арматура гладкая, 10 мм</t>
+  </si>
+  <si>
+    <t>11,7</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>73 550</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>72 180</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>71 490</t>
+  </si>
+  <si>
+    <t>70 800</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
-    <t>Арматура гладкая, 10 мм</t>
-  </si>
-  <si>
-    <t>11,7</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>73 970</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>72 590</t>
-  </si>
-  <si>
-    <t>71 900</t>
-  </si>
-  <si>
-    <t>46</t>
+    <t>Арматура гладкая, 12 мм</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>70 840</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>68 860</t>
+  </si>
+  <si>
+    <t>68 200</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>67 530</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>Арматура гладкая, 12 мм</t>
-  </si>
-  <si>
-    <t>Ст3сп</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71 880</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>70 540</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>69 870</t>
-  </si>
-  <si>
-    <t>69 200</t>
+    <t>Арматура гладкая, 14 мм</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>70 330</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>68 360</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>67 700</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>67 040</t>
   </si>
   <si>
     <t>9</t>
   </si>
   <si>
+    <t>Арматура гладкая, 16 мм</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>Арматура гладкая, 14 мм</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>71 160</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>69 830</t>
-  </si>
-  <si>
-    <t>69 160</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>68 500</t>
+    <t>Арматура гладкая, 18 мм</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>139</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>Арматура гладкая, 16 мм</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>113</t>
+    <t>Арматура гладкая, 20 мм</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>172</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>Арматура гладкая, 18 мм</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>142</t>
+    <t>Арматура гладкая, 22 мм</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>Мотки</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>Арматура гладкая, 20 мм</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>176</t>
+    <t>Арматура гладкая (мотки), 6 мм</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>71 370</t>
+  </si>
+  <si>
+    <t>70 040</t>
+  </si>
+  <si>
+    <t>69 370</t>
+  </si>
+  <si>
+    <t>68 300</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>Арматура гладкая, 22 мм</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>Мотки</t>
+    <t>Арматура гладкая (мотки), 8 мм</t>
+  </si>
+  <si>
+    <t>69 520</t>
+  </si>
+  <si>
+    <t>67 800</t>
   </si>
   <si>
     <t>15</t>
-  </si>
-  <si>
-    <t>Арматура гладкая (мотки), 6 мм</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>70 320</t>
-  </si>
-  <si>
-    <t>69 010</t>
-  </si>
-  <si>
-    <t>68 350</t>
-  </si>
-  <si>
-    <t>67 300</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Арматура гладкая (мотки), 8 мм</t>
-  </si>
-  <si>
-    <t>69 800</t>
-  </si>
-  <si>
-    <t>68 490</t>
-  </si>
-  <si>
-    <t>67 840</t>
-  </si>
-  <si>
-    <t>66 800</t>
   </si>
 </sst>
 </file>
@@ -383,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -544,30 +526,30 @@
         <v>18</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L4" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s" s="0">
         <v>21</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>25</v>
@@ -582,39 +564,39 @@
         <v>16</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s" s="0">
         <v>18</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s" s="0">
         <v>21</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>15</v>
@@ -629,36 +611,36 @@
         <v>17</v>
       </c>
       <c r="G6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="M6" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N6" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="M6" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="N6" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>15</v>
@@ -673,28 +655,28 @@
         <v>17</v>
       </c>
       <c r="G7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="M7" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="N7" t="s" s="0">
         <v>35</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="L7" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="M7" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="N7" t="s" s="0">
-        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -702,10 +684,10 @@
         <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s" s="0">
         <v>10</v>
@@ -717,39 +699,39 @@
         <v>17</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="L8" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="M8" t="s" s="0">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s" s="0">
         <v>10</v>
@@ -761,42 +743,42 @@
         <v>17</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s" s="0">
         <v>16</v>
@@ -805,39 +787,39 @@
         <v>17</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J10" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K10" t="s" s="0">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s" s="0">
         <v>10</v>
@@ -849,39 +831,39 @@
         <v>17</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K11" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s" s="0">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s" s="0">
         <v>10</v>
@@ -893,39 +875,39 @@
         <v>17</v>
       </c>
       <c r="G12" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H12" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="L12" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="N12" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="I12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="K12" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="L12" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="M12" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>10</v>
@@ -937,39 +919,39 @@
         <v>17</v>
       </c>
       <c r="G13" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M13" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="N13" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>10</v>
@@ -981,83 +963,44 @@
         <v>17</v>
       </c>
       <c r="G14" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="N14" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="N14" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="H15" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="N15" t="s" s="0">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>10</v>
@@ -1066,44 +1009,83 @@
         <v>16</v>
       </c>
       <c r="F16" t="s" s="0">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="0">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s" s="0">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="0">
         <v>93</v>
       </c>
       <c r="L16" t="s" s="0">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M16" t="s" s="0">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N16" t="s" s="0">
-        <v>70</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="L17" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>10</v>
@@ -1115,75 +1097,31 @@
         <v>16</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>100</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L18" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="N18" t="s" s="0">
         <v>101</v>
-      </c>
-      <c r="M18" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="N18" t="s" s="0">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>103</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="F19" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="H19" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="I19" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="J19" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="N19" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
